--- a/xlsx_checker/public/templates/lab0_template.xlsx
+++ b/xlsx_checker/public/templates/lab0_template.xlsx
@@ -52,7 +52,7 @@
     <t>Директор</t>
   </si>
   <si>
-    <t>11.05.2012</t>
+    <t>27.02.2007</t>
   </si>
   <si>
     <t>Коробова П.Н</t>
@@ -61,7 +61,7 @@
     <t>Менеджер</t>
   </si>
   <si>
-    <t>12.06.2001</t>
+    <t>31.10.2006</t>
   </si>
   <si>
     <t>Морозов И.Р.</t>
@@ -70,7 +70,7 @@
     <t>Бухгалтер</t>
   </si>
   <si>
-    <t>12.05.2010</t>
+    <t>04.10.2008</t>
   </si>
   <si>
     <t>Петров Г.Т.</t>
@@ -79,7 +79,7 @@
     <t>Зам. директора</t>
   </si>
   <si>
-    <t>04.07.2014</t>
+    <t>24.06.2016</t>
   </si>
   <si>
     <t>Ромашова П.Т.</t>
@@ -88,7 +88,7 @@
     <t>Секетарь</t>
   </si>
   <si>
-    <t>04.06.2005</t>
+    <t>21.10.2013</t>
   </si>
   <si>
     <t>Смирнов С.И.</t>
@@ -97,7 +97,7 @@
     <t>Водитель</t>
   </si>
   <si>
-    <t>04.01.2014</t>
+    <t>21.06.2012</t>
   </si>
   <si>
     <t>Соколова О.С.</t>
@@ -106,7 +106,7 @@
     <t>Строитель</t>
   </si>
   <si>
-    <t>07.05.2008</t>
+    <t>02.07.2004</t>
   </si>
   <si>
     <t xml:space="preserve">Курс доллара: </t>
